--- a/biology/Botanique/Chrysopogon/Chrysopogon.xlsx
+++ b/biology/Botanique/Chrysopogon/Chrysopogon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chrysopogon est un genre de plantes herbacées de la famille des Poaceae. 
 Ce genre se rencontre en Europe, en Asie, en Afrique, en Amérique et en Océanie.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 septembre 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 septembre 2012) :
 Chrysopogon aciculatus (Retz.)  Trin., (1820)
 Chrysopogon argutus (Steud.) Trin. ex B.D.Jacks., (1893)
 Chrysopogon asper B.Heyne ex Blatt. &amp; McCann, (1935)
@@ -592,9 +606,11 @@
           <t>Noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 septembre 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 septembre 2012) :
 Chrysopogon acicularis (Roem. &amp; Schult.) Duthie, (1883), nom. illeg. = Chrysopogon aciculatus (Retz.)  Trin., (1820)
 Chrysopogon aciculatus var. echinulatus (Nees ex Royle) S.K.Jain, (2003), basionym not validly publ. = Chrysopogon gryllus (L.) Trin., (1820)
 Chrysopogon aciculatus var. elatior Benth., (1878), pro syn.  = Chrysopogon aciculatus (Retz.)  Trin., (1820)
